--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf21-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -552,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.4030655</v>
+        <v>0.09215</v>
       </c>
       <c r="N2">
-        <v>0.8061309999999999</v>
+        <v>0.1843</v>
       </c>
       <c r="O2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="P2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
       <c r="Q2">
-        <v>0.08595009028549999</v>
+        <v>0.01965015815</v>
       </c>
       <c r="R2">
-        <v>0.343800361142</v>
+        <v>0.0786006326</v>
       </c>
       <c r="S2">
-        <v>0.01062191174620465</v>
+        <v>0.01023932159503481</v>
       </c>
       <c r="T2">
-        <v>0.01057308397011603</v>
+        <v>0.01017879497979401</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,10 +620,10 @@
         <v>0.321089</v>
       </c>
       <c r="O3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="P3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
       <c r="Q3">
         <v>0.02282311314966667</v>
@@ -638,10 +632,10 @@
         <v>0.136938678898</v>
       </c>
       <c r="S3">
-        <v>0.002820533321653764</v>
+        <v>0.01189268776136058</v>
       </c>
       <c r="T3">
-        <v>0.004211351453895939</v>
+        <v>0.01773358166721151</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,152 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>37.1930565</v>
+        <v>8.80044</v>
       </c>
       <c r="N4">
-        <v>74.38611300000001</v>
+        <v>17.60088</v>
       </c>
       <c r="O4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="P4">
-        <v>0.9756362414539821</v>
+        <v>0.9720876233529945</v>
       </c>
       <c r="Q4">
-        <v>7.9310845611165</v>
+        <v>1.87661462604</v>
       </c>
       <c r="R4">
-        <v>31.724338244466</v>
+        <v>7.50645850416</v>
       </c>
       <c r="S4">
-        <v>0.9801418472049912</v>
+        <v>0.9778679906436047</v>
       </c>
       <c r="T4">
-        <v>0.9756362414539821</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-      <c r="G5">
-        <v>0.213241</v>
-      </c>
-      <c r="H5">
-        <v>0.426482</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.1809256666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.5427770000000001</v>
-      </c>
-      <c r="O5">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="P5">
-        <v>0.0071189754494588</v>
-      </c>
-      <c r="Q5">
-        <v>0.03858077008566667</v>
-      </c>
-      <c r="R5">
-        <v>0.231484620514</v>
-      </c>
-      <c r="S5">
-        <v>0.004767901157396439</v>
-      </c>
-      <c r="T5">
-        <v>0.0071189754494588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-      <c r="G6">
-        <v>0.213241</v>
-      </c>
-      <c r="H6">
-        <v>0.426482</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.06252866666666666</v>
-      </c>
-      <c r="N6">
-        <v>0.187586</v>
-      </c>
-      <c r="O6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="P6">
-        <v>0.002460347672547249</v>
-      </c>
-      <c r="Q6">
-        <v>0.01333367540866666</v>
-      </c>
-      <c r="R6">
-        <v>0.080002052452</v>
-      </c>
-      <c r="S6">
-        <v>0.001647806569754003</v>
-      </c>
-      <c r="T6">
-        <v>0.002460347672547249</v>
+        <v>0.9720876233529945</v>
       </c>
     </row>
   </sheetData>
